--- a/7月制作内容/系统文档/【叶雯婷】知交系统.xlsx
+++ b/7月制作内容/系统文档/【叶雯婷】知交系统.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="24330" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="策划案" sheetId="1" r:id="rId1"/>
+    <sheet name="界面" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
   <si>
     <t>知交系统</t>
   </si>
@@ -106,6 +107,51 @@
     <t>提升方法：赠礼</t>
   </si>
   <si>
+    <t>好感度</t>
+  </si>
+  <si>
+    <t>好感等级</t>
+  </si>
+  <si>
+    <t>好感等级称谓</t>
+  </si>
+  <si>
+    <t>萍水相逢</t>
+  </si>
+  <si>
+    <t>一见如故</t>
+  </si>
+  <si>
+    <t>推心置腹</t>
+  </si>
+  <si>
+    <t>亲密无间</t>
+  </si>
+  <si>
+    <t>纸短情长</t>
+  </si>
+  <si>
+    <t>心有灵犀</t>
+  </si>
+  <si>
+    <t>情深义重</t>
+  </si>
+  <si>
+    <t>琴心相挑</t>
+  </si>
+  <si>
+    <t>情比金坚</t>
+  </si>
+  <si>
+    <t>花好月圆</t>
+  </si>
+  <si>
+    <t>天长地久</t>
+  </si>
+  <si>
+    <t>海誓山盟</t>
+  </si>
+  <si>
     <t>玩家通过寻访、商城礼包获取礼物，赠送给某个知交，以增加其好感度</t>
   </si>
   <si>
@@ -115,9 +161,6 @@
     <t>礼物</t>
   </si>
   <si>
-    <t>好感度</t>
-  </si>
-  <si>
     <t>获取方式</t>
   </si>
   <si>
@@ -206,6 +249,138 @@
   </si>
   <si>
     <t>换装（1.0先不做）</t>
+  </si>
+  <si>
+    <t>【关闭按钮】返回上一级主界面</t>
+  </si>
+  <si>
+    <t>【标题】知交</t>
+  </si>
+  <si>
+    <t>【显示信息】</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>4个字符</t>
+  </si>
+  <si>
+    <t>6个字符</t>
+  </si>
+  <si>
+    <t>【场景、人物】需求未定</t>
+  </si>
+  <si>
+    <t>【功能按钮】</t>
+  </si>
+  <si>
+    <t>跳转图4</t>
+  </si>
+  <si>
+    <t>暂未开启</t>
+  </si>
+  <si>
+    <t>跳转图3</t>
+  </si>
+  <si>
+    <t>跳转图2</t>
+  </si>
+  <si>
+    <t>【轻提示】</t>
+  </si>
+  <si>
+    <t>每次进入知交页面（包含切换）时出现文字提示，显示3s后消失</t>
+  </si>
+  <si>
+    <t>【切换按钮】</t>
+  </si>
+  <si>
+    <t>5个人物按钮</t>
+  </si>
+  <si>
+    <t>状态：选中状态/非选中状态/未解锁状态</t>
+  </si>
+  <si>
+    <t>【弹窗】点击礼物弹窗</t>
+  </si>
+  <si>
+    <t>标题：赠礼</t>
+  </si>
+  <si>
+    <t>关闭：关闭按钮，点击返回上一级，即图1</t>
+  </si>
+  <si>
+    <t>道具名称：5个字符</t>
+  </si>
+  <si>
+    <t>道具详情：30个字符</t>
+  </si>
+  <si>
+    <t>好感度：色值要不同</t>
+  </si>
+  <si>
+    <t>进度条、进度条滚动轮</t>
+  </si>
+  <si>
+    <t>确定：确定按钮，点击后弹窗关闭，角色好感度提升</t>
+  </si>
+  <si>
+    <t>【道具列表】点击赠礼按钮拉出</t>
+  </si>
+  <si>
+    <t>状态：</t>
+  </si>
+  <si>
+    <t>有道具（道具选中/未选中）</t>
+  </si>
+  <si>
+    <t>无道具（显示文字：暂无礼物）</t>
+  </si>
+  <si>
+    <t>道具：图标、数量</t>
+  </si>
+  <si>
+    <t>【弹窗】点击支线弹窗</t>
+  </si>
+  <si>
+    <t>标题：支线</t>
+  </si>
+  <si>
+    <t>列表：可下拉拖动</t>
+  </si>
+  <si>
+    <t>已解锁（回顾/进入）</t>
+  </si>
+  <si>
+    <t>未解锁（显示解锁要求）</t>
+  </si>
+  <si>
+    <t>【弹窗】点击知愿卡弹窗</t>
+  </si>
+  <si>
+    <t>标题：知愿卡</t>
+  </si>
+  <si>
+    <t>卡牌状态：</t>
+  </si>
+  <si>
+    <t>已解锁</t>
+  </si>
+  <si>
+    <t>未解锁</t>
+  </si>
+  <si>
+    <t>显示解锁条件</t>
+  </si>
+  <si>
+    <t>卡牌信息：</t>
+  </si>
+  <si>
+    <t>卡牌</t>
+  </si>
+  <si>
+    <t>稀有度</t>
   </si>
 </sst>
 </file>
@@ -213,12 +388,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +409,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -241,9 +430,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,104 +521,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,14 +542,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -384,8 +549,32 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,25 +583,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,163 +763,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,17 +789,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,7 +802,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,39 +818,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +839,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -691,6 +856,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -699,10 +894,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,147 +906,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -916,6 +1123,567 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="ZM0@6AYG3Q@FEZB5JCRQ[TH"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="466725"/>
+          <a:ext cx="3600450" cy="6372225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="181_0FL[~L%0YZ1_$Q}0420"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="7162800"/>
+          <a:ext cx="3581400" cy="6362700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="1B%A_@`_B~A@$R)AH@MV521"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13868400"/>
+          <a:ext cx="3581400" cy="6353175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="P(_VG@Y}TY2WUND_DPA_AR0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="20574000"/>
+          <a:ext cx="3590925" cy="6353175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形标注 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="10687050"/>
+          <a:ext cx="1409700" cy="686435"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1367790" cy="589280"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="10753725"/>
+          <a:ext cx="1367790" cy="589280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>从道具列表选中道具，跳出弹窗，在同一层级</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形标注 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153650" y="10668000"/>
+          <a:ext cx="1409700" cy="686435"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1367790" cy="589280"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10220325" y="10725150"/>
+          <a:ext cx="1367790" cy="589280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>弹窗后依然可点击下方切换角色，或关闭按钮、切换按钮</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1176,499 +1944,937 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:N74"/>
+  <dimension ref="B3:N87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="15.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>4</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="5:6">
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="5:6">
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="5:6">
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="5:6">
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>4</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="1">
+    <row r="36" spans="5:7">
+      <c r="E36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" s="8">
+        <v>100</v>
+      </c>
+      <c r="F38" s="8">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="G38" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" s="8">
+        <v>200</v>
+      </c>
+      <c r="F39" s="8">
+        <v>3</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" s="8">
+        <v>300</v>
+      </c>
+      <c r="F40" s="8">
+        <v>4</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41" s="8">
+        <v>500</v>
+      </c>
+      <c r="F41" s="8">
+        <v>5</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42" s="8">
+        <v>700</v>
+      </c>
+      <c r="F42" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39" s="1">
+      <c r="G42" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7">
+      <c r="E43" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="8">
+        <v>7</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44" s="8">
+        <v>1300</v>
+      </c>
+      <c r="F44" s="8">
+        <v>8</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="E45" s="8">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="8">
+        <v>9</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7">
+      <c r="E46" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="8">
+        <v>10</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7">
+      <c r="E47" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F47" s="8">
+        <v>11</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7">
+      <c r="E48" s="8">
+        <v>3000</v>
+      </c>
+      <c r="F48" s="8">
+        <v>12</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="3">
         <v>1</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="1" t="s">
+    <row r="53" spans="5:5">
+      <c r="E53" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="D42" s="1">
+      <c r="G56" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="E57" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="6">
+        <v>5</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="E58" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="6">
+        <v>10</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" s="3">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6">
+      <c r="E61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6">
+      <c r="E62" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67" s="3">
+        <v>3</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="5:14">
+      <c r="E69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="13:14">
+      <c r="M70" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14">
+      <c r="D71" s="3">
         <v>2</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="4">
+      <c r="E71" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N71" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="5:14">
+      <c r="E72" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N72" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="5:14">
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
+      <c r="G73" s="6">
+        <v>100</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6">
+        <v>101</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N73" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="5:14">
+      <c r="E74" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1</v>
+      </c>
+      <c r="G74" s="6">
+        <v>200</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6">
+        <v>102</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N74" s="6">
         <v>5</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="4">
-        <v>10</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="D47" s="1">
+    </row>
+    <row r="75" spans="5:10">
+      <c r="E75" s="6">
         <v>3</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6">
-      <c r="E48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6">
-      <c r="F50" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="1">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5">
-      <c r="D55" s="1">
+      <c r="F75" s="6">
         <v>1</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="G75" s="6">
+        <v>300</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78" s="3">
+        <v>4</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="5:14">
-      <c r="E56" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="13:14">
-      <c r="M57" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="4:14">
-      <c r="D58" s="1">
+    <row r="80" spans="5:5">
+      <c r="E80" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" s="3">
         <v>2</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N58" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="5:14">
-      <c r="E59" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N59" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="5:14">
-      <c r="E60" s="4">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>1</v>
-      </c>
-      <c r="G60" s="4">
-        <v>100</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4">
-        <v>101</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N60" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="5:14">
-      <c r="E61" s="4">
-        <v>2</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4">
-        <v>200</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4">
-        <v>102</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N61" s="4">
+      <c r="E82" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5">
+      <c r="E84" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="5:10">
-      <c r="E62" s="4">
-        <v>3</v>
-      </c>
-      <c r="F62" s="4">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4">
-        <v>300</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="1">
-        <v>4</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5">
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5">
-      <c r="D69" s="1">
-        <v>2</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="5:5">
-      <c r="E70" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
-      <c r="C74" s="1">
-        <v>5</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>63</v>
+      <c r="D87" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A4:J151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="H5" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="H7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="8:9">
+      <c r="H8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="8:9">
+      <c r="H9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="8:9">
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9">
+      <c r="H28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9">
+      <c r="H29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9">
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9">
+      <c r="H31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="8:8">
+      <c r="H68" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8">
+      <c r="H69" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="H71" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8">
+      <c r="H72" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8">
+      <c r="H80" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9">
+      <c r="H81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9">
+      <c r="I82" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8">
+      <c r="H104" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8">
+      <c r="H105" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8">
+      <c r="H106" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="8:8">
+      <c r="H107" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="8:9">
+      <c r="H108" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="9:9">
+      <c r="I109" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="8:8">
+      <c r="H143" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="8:8">
+      <c r="H144" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="8:8">
+      <c r="H145" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146" spans="8:8">
+      <c r="H146" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="147" spans="8:9">
+      <c r="H147" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148" spans="9:10">
+      <c r="I148" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="8:9">
+      <c r="H149" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150" spans="9:9">
+      <c r="I150" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="9:9">
+      <c r="I151" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/7月制作内容/系统文档/【叶雯婷】知交系统.xlsx
+++ b/7月制作内容/系统文档/【叶雯婷】知交系统.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24330" windowHeight="12465"/>
+    <workbookView windowWidth="24315" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="策划案" sheetId="1" r:id="rId1"/>
     <sheet name="界面" sheetId="2" r:id="rId2"/>
+    <sheet name="知交模板表" sheetId="3" r:id="rId3"/>
+    <sheet name="支线任务表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="194">
   <si>
     <t>知交系统</t>
   </si>
@@ -104,7 +106,7 @@
     <t>好感度：用于解锁支线剧情</t>
   </si>
   <si>
-    <t>提升方法：赠礼</t>
+    <t>提升方法：赠礼、主线、支线剧情选择</t>
   </si>
   <si>
     <t>好感度</t>
@@ -116,6 +118,9 @@
     <t>好感等级称谓</t>
   </si>
   <si>
+    <t>差值</t>
+  </si>
+  <si>
     <t>萍水相逢</t>
   </si>
   <si>
@@ -158,21 +163,96 @@
     <t>礼物可增加知交好感度</t>
   </si>
   <si>
+    <t>序号</t>
+  </si>
+  <si>
     <t>礼物</t>
   </si>
   <si>
     <t>获取方式</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>特殊对象</t>
+  </si>
+  <si>
+    <t>桃子</t>
+  </si>
+  <si>
+    <t>寻访</t>
+  </si>
+  <si>
+    <t>通用=0</t>
+  </si>
+  <si>
+    <t>无=0</t>
+  </si>
+  <si>
+    <t>荔枝</t>
+  </si>
+  <si>
+    <t>特殊=1</t>
+  </si>
+  <si>
+    <t>知交ID=[1,255]</t>
+  </si>
+  <si>
+    <t>古琴</t>
+  </si>
+  <si>
+    <t>青铜镜</t>
+  </si>
+  <si>
     <t>落花簪</t>
   </si>
   <si>
-    <t>寻访</t>
-  </si>
-  <si>
     <t>泣血刃</t>
   </si>
   <si>
+    <t>仕女图</t>
+  </si>
+  <si>
+    <t>凤凰镜</t>
+  </si>
+  <si>
+    <t>九眼天珠</t>
+  </si>
+  <si>
+    <t>三彩骏马</t>
+  </si>
+  <si>
+    <t>凤首箜篌</t>
+  </si>
+  <si>
+    <t>白玉棋盘</t>
+  </si>
+  <si>
+    <t>张旭的字帖</t>
+  </si>
+  <si>
+    <t>鎏金青铜马</t>
+  </si>
+  <si>
+    <t>三彩南瓜罐</t>
+  </si>
+  <si>
+    <t>秘色瓷手镯</t>
+  </si>
+  <si>
+    <t>玛瑙天珠手串</t>
+  </si>
+  <si>
+    <t>鎏金铜佛像</t>
+  </si>
+  <si>
+    <t>吴道子的画</t>
+  </si>
+  <si>
+    <t>唐花纹香盒</t>
+  </si>
+  <si>
     <t>礼物类型</t>
   </si>
   <si>
@@ -209,9 +289,6 @@
     <t>101-200</t>
   </si>
   <si>
-    <t>解锁（好感度）要求</t>
-  </si>
-  <si>
     <t>任务完成条件</t>
   </si>
   <si>
@@ -381,6 +458,148 @@
   </si>
   <si>
     <t>稀有度</t>
+  </si>
+  <si>
+    <t>属性名</t>
+  </si>
+  <si>
+    <t>函数名</t>
+  </si>
+  <si>
+    <t>值类型</t>
+  </si>
+  <si>
+    <t>值范围</t>
+  </si>
+  <si>
+    <t>值定义</t>
+  </si>
+  <si>
+    <t>属性说明</t>
+  </si>
+  <si>
+    <t>好感称谓</t>
+  </si>
+  <si>
+    <t>知交ID</t>
+  </si>
+  <si>
+    <t>FriendsID</t>
+  </si>
+  <si>
+    <t>知交ID=1-100</t>
+  </si>
+  <si>
+    <t>表示知交的ID</t>
+  </si>
+  <si>
+    <t>图片ID</t>
+  </si>
+  <si>
+    <t>ImageID</t>
+  </si>
+  <si>
+    <t>图片ID=知交ID*100;
+初始图片为知交ID*100;后续皮肤图片ID=知交ID*100+皮肤ID</t>
+  </si>
+  <si>
+    <t>表示知交的图片封面</t>
+  </si>
+  <si>
+    <t>FriendshipLevel</t>
+  </si>
+  <si>
+    <t>表示某个知交的好感等级</t>
+  </si>
+  <si>
+    <t>FriendshipNum</t>
+  </si>
+  <si>
+    <t>表示某个知交的好感值</t>
+  </si>
+  <si>
+    <t>FriendshipName</t>
+  </si>
+  <si>
+    <t>表示好感等级的名称</t>
+  </si>
+  <si>
+    <t>关联卡牌组</t>
+  </si>
+  <si>
+    <t>RelateCardsGroup</t>
+  </si>
+  <si>
+    <t>卡牌组ID=知交ID</t>
+  </si>
+  <si>
+    <t>表示该知交关联的所有卡牌</t>
+  </si>
+  <si>
+    <t>支线任务ID</t>
+  </si>
+  <si>
+    <t>SideQuest</t>
+  </si>
+  <si>
+    <t>任务ID=知交ID*100+好感等级</t>
+  </si>
+  <si>
+    <t>达到该好感等级时，可开启的支线任务ID</t>
+  </si>
+  <si>
+    <t>表示该支线任务对应的知交</t>
+  </si>
+  <si>
+    <t>表示解锁该支线任务的好感等级</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>QuestType</t>
+  </si>
+  <si>
+    <t>对应任务表</t>
+  </si>
+  <si>
+    <t>表示该支线任务对应的类型</t>
+  </si>
+  <si>
+    <t>QuestID</t>
+  </si>
+  <si>
+    <t>表示该支线任务ID</t>
+  </si>
+  <si>
+    <t>奖励类型</t>
+  </si>
+  <si>
+    <t>RewardType</t>
+  </si>
+  <si>
+    <t>对应奖励表</t>
+  </si>
+  <si>
+    <t>表示完成任务获得的奖励类型</t>
+  </si>
+  <si>
+    <t>奖励ID</t>
+  </si>
+  <si>
+    <t>RewardTID</t>
+  </si>
+  <si>
+    <t>表示完成任务获得的奖励ID</t>
+  </si>
+  <si>
+    <t>奖励数量</t>
+  </si>
+  <si>
+    <t>RewardTNum</t>
+  </si>
+  <si>
+    <t>表示完成任务获得的奖励数量</t>
   </si>
 </sst>
 </file>
@@ -388,12 +607,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +622,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -423,36 +656,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -460,7 +665,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,16 +678,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -497,8 +708,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,47 +724,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,6 +770,35 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -583,13 +809,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,25 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,85 +863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +887,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,53 +1001,94 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -808,21 +1111,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -833,26 +1121,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,6 +1154,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -894,10 +1182,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,162 +1194,207 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1944,640 +2277,959 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:N87"/>
+  <dimension ref="B3:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="15.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="4" width="9" style="18"/>
+    <col min="5" max="5" width="10.875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="18"/>
+    <col min="7" max="7" width="15.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9" style="18"/>
+    <col min="9" max="9" width="12.75" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="3">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="3">
+      <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="3">
+      <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="3">
+      <c r="B9" s="18">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="3">
+      <c r="C10" s="18">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="3">
+      <c r="C11" s="18">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="3">
+      <c r="C12" s="18">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="3">
+      <c r="C13" s="18">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="3">
+      <c r="C14" s="18">
         <v>5</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="3">
+      <c r="B17" s="18">
         <v>3</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="3">
+      <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="3">
+      <c r="D19" s="18">
         <v>1</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="3">
+      <c r="D23" s="18">
         <v>2</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="3">
+      <c r="D25" s="18">
         <v>3</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="5:6">
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="5:6">
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="5:6">
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="5:6">
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="3">
+      <c r="D33" s="18">
         <v>4</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="5:7">
-      <c r="E36" s="7" t="s">
+    <row r="36" spans="5:8">
+      <c r="E36" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="5:7">
-      <c r="E37" s="8">
+      <c r="H36" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37" s="22">
         <v>0</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="22">
         <v>1</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7">
-      <c r="E38" s="8">
+      <c r="G37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="E38" s="22">
         <v>100</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="22">
         <v>2</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="E39" s="8">
+      <c r="G38" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="4">
+        <f>E38-E37</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="E39" s="22">
+        <v>250</v>
+      </c>
+      <c r="F39" s="22">
+        <v>3</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" ref="H39:H48" si="0">E39-E38</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="E40" s="22">
+        <v>450</v>
+      </c>
+      <c r="F40" s="22">
+        <v>4</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F39" s="8">
+    </row>
+    <row r="41" spans="5:8">
+      <c r="E41" s="22">
+        <v>700</v>
+      </c>
+      <c r="F41" s="22">
+        <v>5</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="E42" s="22">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="22">
+        <v>6</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="E43" s="22">
+        <v>1350</v>
+      </c>
+      <c r="F43" s="22">
+        <v>7</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8">
+      <c r="E44" s="22">
+        <v>1750</v>
+      </c>
+      <c r="F44" s="22">
+        <v>8</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="E45" s="22">
+        <v>2250</v>
+      </c>
+      <c r="F45" s="22">
+        <v>9</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8">
+      <c r="E46" s="22">
+        <v>2800</v>
+      </c>
+      <c r="F46" s="22">
+        <v>10</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8">
+      <c r="E47" s="22">
+        <v>3400</v>
+      </c>
+      <c r="F47" s="22">
+        <v>11</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8">
+      <c r="E48" s="22">
+        <v>4100</v>
+      </c>
+      <c r="F48" s="22">
+        <v>12</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="18">
+        <v>2</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="18">
+        <v>1</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="18">
+        <v>2</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9">
+      <c r="D56" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9">
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="22">
+        <v>5</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9">
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="22">
+        <v>5</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8">
+      <c r="D59" s="4">
         <v>3</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7">
-      <c r="E40" s="8">
-        <v>300</v>
-      </c>
-      <c r="F40" s="8">
+      <c r="E59" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="22">
+        <v>5</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="4:8">
+      <c r="D60" s="4">
         <v>4</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41" s="8">
-        <v>500</v>
-      </c>
-      <c r="F41" s="8">
+      <c r="E60" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="22">
+        <v>8</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="4:8">
+      <c r="D61" s="4">
         <v>5</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7">
-      <c r="E42" s="8">
-        <v>700</v>
-      </c>
-      <c r="F42" s="8">
+      <c r="E61" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="22">
+        <v>8</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="4:8">
+      <c r="D62" s="4">
         <v>6</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F43" s="8">
+      <c r="E62" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="22">
+        <v>8</v>
+      </c>
+      <c r="G62" s="22"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="4:8">
+      <c r="D63" s="4">
         <v>7</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" s="8">
-        <v>1300</v>
-      </c>
-      <c r="F44" s="8">
+      <c r="E63" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="22">
         <v>8</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" s="8">
-        <v>1600</v>
-      </c>
-      <c r="F45" s="8">
+      <c r="G63" s="22"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="4:8">
+      <c r="D64" s="4">
+        <v>8</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="22">
+        <v>10</v>
+      </c>
+      <c r="G64" s="22"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="4:8">
+      <c r="D65" s="4">
         <v>9</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F46" s="8">
+      <c r="E65" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="22">
         <v>10</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F47" s="8">
+      <c r="G65" s="22"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="4:8">
+      <c r="D66" s="4">
+        <v>10</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="22">
+        <v>10</v>
+      </c>
+      <c r="G66" s="22"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="4:8">
+      <c r="D67" s="4">
         <v>11</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7">
-      <c r="E48" s="8">
-        <v>3000</v>
-      </c>
-      <c r="F48" s="8">
+      <c r="E67" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" s="22">
+        <v>10</v>
+      </c>
+      <c r="G67" s="22"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="4:8">
+      <c r="D68" s="4">
         <v>12</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="3">
+      <c r="E68" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="22">
+        <v>10</v>
+      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="4:8">
+      <c r="D69" s="4">
+        <v>13</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="22">
+        <v>10</v>
+      </c>
+      <c r="G69" s="22"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="4:8">
+      <c r="D70" s="4">
+        <v>14</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="22">
+        <v>10</v>
+      </c>
+      <c r="G70" s="22"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="4:8">
+      <c r="D71" s="4">
+        <v>15</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" s="22">
+        <v>15</v>
+      </c>
+      <c r="G71" s="22"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="4:8">
+      <c r="D72" s="4">
+        <v>16</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="22">
+        <v>15</v>
+      </c>
+      <c r="G72" s="22"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="4:8">
+      <c r="D73" s="4">
+        <v>17</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="22">
+        <v>15</v>
+      </c>
+      <c r="G73" s="22"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="4:8">
+      <c r="D74" s="4">
+        <v>18</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" s="22">
+        <v>15</v>
+      </c>
+      <c r="G74" s="22"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="4:8">
+      <c r="D75" s="4">
+        <v>19</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" s="22">
+        <v>20</v>
+      </c>
+      <c r="G75" s="22"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="4:8">
+      <c r="D76" s="4">
+        <v>20</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="22">
+        <v>20</v>
+      </c>
+      <c r="G76" s="22"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="5:8">
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="18">
+        <v>3</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6">
+      <c r="E81" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6">
+      <c r="E82" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="18">
+        <v>3</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="D88" s="18">
+        <v>1</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="5:14">
+      <c r="E89" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="M89" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N89" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="13:14">
+      <c r="M90" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N90" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="4:14">
+      <c r="D91" s="18">
         <v>2</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5">
-      <c r="D52" s="3">
+      <c r="E91" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M91" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N91" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="5:14">
+      <c r="E92" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M92" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N92" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="5:14">
+      <c r="E93" s="22">
         <v>1</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F93" s="22">
+        <v>1</v>
+      </c>
+      <c r="G93" s="22">
+        <v>1</v>
+      </c>
+      <c r="H93" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22">
+        <v>101</v>
+      </c>
+      <c r="M93" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="N93" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="5:14">
+      <c r="E94" s="22">
+        <v>2</v>
+      </c>
+      <c r="F94" s="22">
+        <v>1</v>
+      </c>
+      <c r="G94" s="22">
+        <v>2</v>
+      </c>
+      <c r="H94" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22">
+        <v>102</v>
+      </c>
+      <c r="M94" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N94" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="5:10">
+      <c r="E95" s="22">
+        <v>3</v>
+      </c>
+      <c r="F95" s="22">
+        <v>1</v>
+      </c>
+      <c r="G95" s="22">
+        <v>3</v>
+      </c>
+      <c r="H95" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="18">
+        <v>4</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5">
+      <c r="D99" s="18">
+        <v>1</v>
+      </c>
+      <c r="E99" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="5:5">
-      <c r="E53" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5">
-      <c r="D55" s="3">
+    <row r="100" spans="5:5">
+      <c r="E100" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5">
+      <c r="D102" s="18">
         <v>2</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7">
-      <c r="E56" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7">
-      <c r="E57" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="6">
+      <c r="E102" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107" s="18">
         <v>5</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7">
-      <c r="E58" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="6">
-        <v>10</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5">
-      <c r="D60" s="3">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6">
-      <c r="E61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="5:6">
-      <c r="E62" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="6:6">
-      <c r="F63" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="3">
-        <v>3</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5">
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="5:14">
-      <c r="E69" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N69" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="13:14">
-      <c r="M70" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N70" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="4:14">
-      <c r="D71" s="3">
-        <v>2</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M71" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N71" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="5:14">
-      <c r="E72" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M72" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N72" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="5:14">
-      <c r="E73" s="6">
-        <v>1</v>
-      </c>
-      <c r="F73" s="6">
-        <v>1</v>
-      </c>
-      <c r="G73" s="6">
-        <v>100</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6">
-        <v>101</v>
-      </c>
-      <c r="M73" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N73" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="5:14">
-      <c r="E74" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" s="6">
-        <v>1</v>
-      </c>
-      <c r="G74" s="6">
-        <v>200</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6">
+      <c r="D107" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="M74" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N74" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="5:10">
-      <c r="E75" s="6">
-        <v>3</v>
-      </c>
-      <c r="F75" s="6">
-        <v>1</v>
-      </c>
-      <c r="G75" s="6">
-        <v>300</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4">
-      <c r="C78" s="3">
-        <v>4</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5">
-      <c r="D79" s="3">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="5:5">
-      <c r="E80" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5">
-      <c r="D82" s="3">
-        <v>2</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5">
-      <c r="E83" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5">
-      <c r="E84" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4">
-      <c r="C87" s="3">
-        <v>5</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2595,281 +3247,281 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>78</v>
+      <c r="H4" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="8:8">
-      <c r="H5" s="3" t="s">
-        <v>79</v>
+      <c r="H5" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="8:8">
-      <c r="H7" s="3" t="s">
-        <v>80</v>
+      <c r="H7" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="8:9">
-      <c r="H8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>82</v>
+      <c r="H8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="8:9">
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>83</v>
+      <c r="I9" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="8:9">
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>82</v>
+      <c r="I10" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="8:8">
-      <c r="H17" s="4" t="s">
-        <v>84</v>
+      <c r="H17" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="8:8">
-      <c r="H27" s="1" t="s">
-        <v>85</v>
+      <c r="H27" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="8:9">
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>86</v>
+      <c r="I28" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="8:9">
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>87</v>
+      <c r="I29" s="18" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="8:9">
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>88</v>
+      <c r="I30" s="18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="8:9">
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>89</v>
+      <c r="I31" s="18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="1" t="s">
-        <v>90</v>
+      <c r="H38" s="18" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="1" t="s">
-        <v>91</v>
+      <c r="H39" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="1" t="s">
-        <v>92</v>
+      <c r="H41" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="1" t="s">
-        <v>93</v>
+      <c r="H42" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="1" t="s">
-        <v>94</v>
+      <c r="H43" s="18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2">
+      <c r="A48" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="8:8">
-      <c r="H65" s="1" t="s">
-        <v>95</v>
+      <c r="H65" s="18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="8:8">
-      <c r="H66" s="1" t="s">
-        <v>96</v>
+      <c r="H66" s="18" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="8:8">
-      <c r="H67" s="1" t="s">
-        <v>97</v>
+      <c r="H67" s="18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="8:8">
-      <c r="H68" s="1" t="s">
-        <v>98</v>
+      <c r="H68" s="18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="8:8">
-      <c r="H69" s="1" t="s">
-        <v>99</v>
+      <c r="H69" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="8:8">
-      <c r="H70" s="1" t="s">
-        <v>100</v>
+      <c r="H70" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="8:8">
-      <c r="H71" s="1" t="s">
-        <v>101</v>
+      <c r="H71" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="8:8">
-      <c r="H72" s="1" t="s">
-        <v>102</v>
+      <c r="H72" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="8:8">
-      <c r="H80" s="1" t="s">
-        <v>103</v>
+      <c r="H80" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="8:9">
-      <c r="H81" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>105</v>
+      <c r="H81" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="9:9">
-      <c r="I82" s="1" t="s">
+      <c r="I82" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8">
+      <c r="H104" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8">
+      <c r="H105" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8">
+      <c r="H106" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="8:8">
+      <c r="H107" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="8:9">
+      <c r="H108" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="I108" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="9:9">
+      <c r="I109" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="8:8">
+      <c r="H143" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="8:8">
+      <c r="H144" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="8:8">
+      <c r="H145" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="8:8">
+      <c r="H146" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147" spans="8:9">
+      <c r="H147" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I147" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="9:10">
+      <c r="I148" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J148" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="8:9">
+      <c r="H149" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I149" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="8:8">
-      <c r="H83" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="8:8">
-      <c r="H104" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="8:8">
-      <c r="H105" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="8:8">
-      <c r="H106" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="107" spans="8:8">
-      <c r="H107" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="8:9">
-      <c r="H108" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="9:9">
-      <c r="I109" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="8:8">
-      <c r="H143" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="144" spans="8:8">
-      <c r="H144" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="145" spans="8:8">
-      <c r="H145" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="146" spans="8:8">
-      <c r="H146" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="147" spans="8:9">
-      <c r="H147" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="148" spans="9:10">
-      <c r="I148" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="149" spans="8:9">
-      <c r="H149" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="150" spans="9:9">
-      <c r="I150" s="1" t="s">
-        <v>120</v>
+      <c r="I150" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="9:9">
-      <c r="I151" s="1" t="s">
-        <v>121</v>
+      <c r="I151" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2877,4 +3529,365 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="15.25" style="6" customWidth="1"/>
+    <col min="4" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="32.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="34.375" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11">
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="36" spans="2:11">
+      <c r="B5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" s="12">
+        <v>4</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="12">
+        <v>5</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="2:11">
+      <c r="B9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="14">
+        <v>6</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11">
+      <c r="J10" s="12">
+        <v>7</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="10:11">
+      <c r="J11" s="12">
+        <v>8</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11">
+      <c r="J12" s="12">
+        <v>9</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11">
+      <c r="J13" s="12">
+        <v>10</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="10:11">
+      <c r="J14" s="12">
+        <v>11</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="10:11">
+      <c r="J15" s="16">
+        <v>12</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="6.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/7月制作内容/系统文档/【叶雯婷】知交系统.xlsx
+++ b/7月制作内容/系统文档/【叶雯婷】知交系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24285" windowHeight="12465"/>
+    <workbookView windowWidth="24285" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="策划案" sheetId="1" r:id="rId1"/>
@@ -493,49 +493,49 @@
     <t>好感值（喜欢）</t>
   </si>
   <si>
+    <t>LikeNum</t>
+  </si>
+  <si>
+    <t>喜欢-标准值*1.5</t>
+  </si>
+  <si>
+    <t>表示礼物对该礼物态度喜欢的知交可增加的好感值</t>
+  </si>
+  <si>
+    <t>厌恶的知交ID</t>
+  </si>
+  <si>
+    <t>HateID</t>
+  </si>
+  <si>
+    <t>表示对该礼物态度厌恶的知交ID</t>
+  </si>
+  <si>
+    <t>好感值（厌恶）</t>
+  </si>
+  <si>
+    <t>HateNum</t>
+  </si>
+  <si>
+    <t>厌恶=标准值*0.5</t>
+  </si>
+  <si>
+    <t>表示礼物对该礼物态度厌恶的知交可增加的好感值</t>
+  </si>
+  <si>
+    <t>普通的知交ID</t>
+  </si>
+  <si>
+    <t>NormalID</t>
+  </si>
+  <si>
+    <t>表示对该礼物态度普通的知交ID</t>
+  </si>
+  <si>
+    <t>好感值（普通）</t>
+  </si>
+  <si>
     <t>NormalNum</t>
-  </si>
-  <si>
-    <t>喜欢-标准值*1.5</t>
-  </si>
-  <si>
-    <t>表示礼物对该礼物态度喜欢的知交可增加的好感值</t>
-  </si>
-  <si>
-    <t>厌恶的知交ID</t>
-  </si>
-  <si>
-    <t>HateID</t>
-  </si>
-  <si>
-    <t>表示对该礼物态度厌恶的知交ID</t>
-  </si>
-  <si>
-    <t>好感值（厌恶）</t>
-  </si>
-  <si>
-    <t>HateNum</t>
-  </si>
-  <si>
-    <t>厌恶=标准值*0.5</t>
-  </si>
-  <si>
-    <t>表示礼物对该礼物态度厌恶的知交可增加的好感值</t>
-  </si>
-  <si>
-    <t>普通的知交ID</t>
-  </si>
-  <si>
-    <t>NormalID</t>
-  </si>
-  <si>
-    <t>表示对该礼物态度普通的知交ID</t>
-  </si>
-  <si>
-    <t>好感值（普通）</t>
-  </si>
-  <si>
-    <t>LikeNum</t>
   </si>
   <si>
     <t>普通=标准值</t>
@@ -885,8 +885,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -940,21 +940,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -965,6 +950,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -984,16 +976,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,11 +1008,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1031,24 +1054,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,13 +1070,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1078,7 +1078,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,7 +1099,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,7 +1165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,7 +1177,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,37 +1249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,85 +1261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,18 +1280,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,6 +1356,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1366,6 +1381,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,25 +1409,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1441,17 +1452,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1460,10 +1460,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1472,137 +1472,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1622,9 +1622,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -1636,15 +1633,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1654,14 +1642,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1671,9 +1653,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8065,1572 +8044,1571 @@
   <sheetPr/>
   <dimension ref="B3:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E26" sqref="E26:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="4" width="9" style="23"/>
-    <col min="5" max="5" width="10.875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="9" style="23"/>
-    <col min="9" max="9" width="24.875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="23" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="23"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="24.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="23">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="23">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="23">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="23">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="23">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="23">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="23">
+      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="23">
+      <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="23">
+      <c r="C14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="23">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="23">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="23">
+      <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="23">
+      <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="23">
+      <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="5:6">
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="5:6">
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="5:11">
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="5:11">
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="10:11">
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="23">
+      <c r="D33" s="1">
         <v>4</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="5:10">
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="5:10">
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="5:14">
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23" t="s">
+      <c r="N36" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="5:12">
-      <c r="E37" s="13">
+      <c r="E37" s="4">
         <v>0</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="4">
         <v>1</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="4">
         <v>60</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="4">
         <f>K37*$G$66*$K$30</f>
         <v>60</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="4">
         <v>6</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="5:12">
-      <c r="E38" s="13">
+      <c r="E38" s="4">
         <v>60</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="4">
         <v>2</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="4">
         <v>80</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="4">
         <f>K38*$G$66*$K$30</f>
         <v>80</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="4">
         <v>8</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="4">
         <f>L37+J37</f>
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="5:12">
-      <c r="E39" s="13">
+      <c r="E39" s="4">
         <v>140</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="4">
         <v>3</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="4">
         <v>120</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="4">
         <f>K39*$G$66*$K$30</f>
         <v>120</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="4">
         <v>12</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="4">
         <f t="shared" ref="L39:L48" si="0">L38+J38</f>
         <v>140</v>
       </c>
     </row>
     <row r="40" spans="5:12">
-      <c r="E40" s="13">
+      <c r="E40" s="4">
         <v>260</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="4">
         <v>4</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="4">
         <v>450</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="4">
         <f>K40*$G$66*$K$31</f>
         <v>450</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="4">
         <v>18</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="4">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
     </row>
     <row r="41" spans="5:12">
-      <c r="E41" s="13">
+      <c r="E41" s="4">
         <v>710</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="4">
         <v>5</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="4">
         <v>625</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="4">
         <f>K41*$G$66*$K$31</f>
         <v>625</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="4">
         <v>25</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="4">
         <f t="shared" si="0"/>
         <v>710</v>
       </c>
     </row>
     <row r="42" spans="5:12">
-      <c r="E42" s="13">
+      <c r="E42" s="4">
         <v>1335</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="4">
         <v>6</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="4">
         <v>1125</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="4">
         <f>K42*$G$66*$K$31</f>
         <v>1125</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="4">
         <v>45</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="4">
         <f t="shared" si="0"/>
         <v>1335</v>
       </c>
     </row>
     <row r="43" spans="5:12">
-      <c r="E43" s="13">
+      <c r="E43" s="4">
         <v>2460</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="4">
         <v>7</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="4">
         <v>1950</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="4">
         <f>K43*$G$66*$K$31</f>
         <v>1950</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="4">
         <v>78</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="4">
         <f t="shared" si="0"/>
         <v>2460</v>
       </c>
     </row>
     <row r="44" spans="5:12">
-      <c r="E44" s="13">
+      <c r="E44" s="4">
         <v>4410</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="4">
         <v>8</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="4">
         <v>2750</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="4">
         <f>K44*$G$66*$K$31</f>
         <v>2750</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="4">
         <v>110</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="4">
         <f t="shared" si="0"/>
         <v>4410</v>
       </c>
     </row>
     <row r="45" spans="5:12">
-      <c r="E45" s="13">
+      <c r="E45" s="4">
         <v>7160</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="4">
         <v>9</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="4">
         <v>9100</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="4">
         <f>K45*$G$66*$K$32</f>
         <v>9100</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="4">
         <v>130</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="4">
         <f t="shared" si="0"/>
         <v>7160</v>
       </c>
     </row>
     <row r="46" spans="5:12">
-      <c r="E46" s="13">
+      <c r="E46" s="4">
         <v>16260</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="4">
         <v>10</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="4">
         <v>13300</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="4">
         <f>K46*$G$66*$K$32</f>
         <v>13300</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="4">
         <v>190</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="4">
         <f t="shared" si="0"/>
         <v>16260</v>
       </c>
     </row>
     <row r="47" spans="5:12">
-      <c r="E47" s="13">
+      <c r="E47" s="4">
         <v>29560</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="4">
         <v>11</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="4">
         <v>17500</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="4">
         <f>K47*$G$66*$K$32</f>
         <v>17500</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="4">
         <v>250</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="4">
         <f t="shared" si="0"/>
         <v>29560</v>
       </c>
     </row>
     <row r="48" spans="5:12">
-      <c r="E48" s="13">
+      <c r="E48" s="4">
         <v>47060</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="4">
         <v>12</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="4">
         <v>25200</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="4">
         <f>K48*$G$66*$K$32</f>
         <v>25200</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="4">
         <v>360</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="4">
         <f t="shared" si="0"/>
         <v>47060</v>
       </c>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="23">
+      <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="4:5">
-      <c r="D52" s="23">
+      <c r="D52" s="1">
         <v>1</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="4:5">
-      <c r="D55" s="23">
+      <c r="D55" s="1">
         <v>2</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="9:10">
-      <c r="I57" s="6">
+      <c r="I57" s="4">
         <v>1.5</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="5:10">
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="J58" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="59" spans="5:10">
-      <c r="E59" s="13">
+      <c r="E59" s="4">
         <v>1</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="4">
         <v>6</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="4">
         <f>G59*$I$57</f>
         <v>9</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="4">
         <f>G59*$J$57</f>
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="5:10">
-      <c r="E60" s="13">
+      <c r="E60" s="4">
         <v>2</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="4">
         <v>6</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="4">
         <f t="shared" ref="I60:I78" si="1">G60*$I$57</f>
         <v>9</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="4">
         <f t="shared" ref="J60:J78" si="2">G60*$J$57</f>
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="5:10">
-      <c r="E61" s="13">
+      <c r="E61" s="4">
         <v>3</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="4">
         <v>6</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="5:10">
-      <c r="E62" s="13">
+      <c r="E62" s="4">
         <v>4</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="4">
         <v>6</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="H62" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="5:10">
-      <c r="E63" s="13">
+      <c r="E63" s="4">
         <v>5</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="4">
         <v>8</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="5:10">
-      <c r="E64" s="13">
+      <c r="E64" s="4">
         <v>6</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="4">
         <v>8</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="5:10">
-      <c r="E65" s="13">
+      <c r="E65" s="4">
         <v>7</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="4">
         <v>8</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="5:10">
-      <c r="E66" s="13">
+      <c r="E66" s="4">
         <v>8</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="4">
         <v>10</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="5:10">
-      <c r="E67" s="13">
+      <c r="E67" s="4">
         <v>9</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="4">
         <v>10</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="5:10">
-      <c r="E68" s="13">
+      <c r="E68" s="4">
         <v>10</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="4">
         <v>10</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="5:10">
-      <c r="E69" s="13">
+      <c r="E69" s="4">
         <v>11</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="4">
         <v>10</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H69" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="5:10">
-      <c r="E70" s="13">
+      <c r="E70" s="4">
         <v>12</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="4">
         <v>10</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="H70" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="5:10">
-      <c r="E71" s="13">
+      <c r="E71" s="4">
         <v>13</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="4">
         <v>10</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="5:10">
-      <c r="E72" s="13">
+      <c r="E72" s="4">
         <v>14</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="4">
         <v>10</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="H72" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="73" spans="5:10">
-      <c r="E73" s="13">
+      <c r="E73" s="4">
         <v>15</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="4">
         <v>14</v>
       </c>
-      <c r="H73" s="13" t="s">
+      <c r="H73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="5:10">
-      <c r="E74" s="13">
+      <c r="E74" s="4">
         <v>16</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="4">
         <v>14</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="5:10">
-      <c r="E75" s="13">
+      <c r="E75" s="4">
         <v>17</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="4">
         <v>14</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="H75" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="5:10">
-      <c r="E76" s="13">
+      <c r="E76" s="4">
         <v>18</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="4">
         <v>14</v>
       </c>
-      <c r="H76" s="13" t="s">
+      <c r="H76" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="5:10">
-      <c r="E77" s="13">
+      <c r="E77" s="4">
         <v>19</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="4">
         <v>20</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I77" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="5:10">
-      <c r="E78" s="13">
+      <c r="E78" s="4">
         <v>20</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G78" s="4">
         <v>20</v>
       </c>
-      <c r="H78" s="13" t="s">
+      <c r="H78" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I78" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="3:4">
-      <c r="C81" s="23">
+      <c r="C81" s="1">
         <v>3</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="4:5">
-      <c r="D82" s="23">
+      <c r="D82" s="1">
         <v>1</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E82" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="84" spans="5:5">
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="4:5">
-      <c r="D87" s="23">
+      <c r="D87" s="1">
         <v>2</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="5:18">
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="F88" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G88" s="12" t="s">
+      <c r="G88" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H88" s="12" t="s">
+      <c r="H88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12" t="s">
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Q88" s="12" t="s">
+      <c r="Q88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="R88" s="12" t="s">
+      <c r="R88" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="89" spans="5:18">
-      <c r="E89" s="13">
+      <c r="E89" s="4">
         <v>101</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="4">
         <v>1</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="4">
         <v>2</v>
       </c>
-      <c r="H89" s="13" t="s">
+      <c r="H89" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13">
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4">
         <v>101</v>
       </c>
-      <c r="Q89" s="13" t="s">
+      <c r="Q89" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R89" s="13">
+      <c r="R89" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="5:18">
-      <c r="E90" s="13">
+      <c r="E90" s="4">
         <v>102</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="4">
         <v>1</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G90" s="4">
         <v>3</v>
       </c>
-      <c r="H90" s="13" t="s">
+      <c r="H90" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13">
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4">
         <v>102</v>
       </c>
-      <c r="Q90" s="13" t="s">
+      <c r="Q90" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="R90" s="13">
+      <c r="R90" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="5:18">
-      <c r="E91" s="13">
+      <c r="E91" s="4">
         <v>103</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="4">
         <v>1</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="4">
         <v>4</v>
       </c>
-      <c r="H91" s="13" t="s">
+      <c r="H91" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13">
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4">
         <v>103</v>
       </c>
-      <c r="Q91" s="13" t="s">
+      <c r="Q91" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R91" s="13">
+      <c r="R91" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="5:18">
-      <c r="E92" s="13">
+      <c r="E92" s="4">
         <v>104</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F92" s="4">
         <v>1</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G92" s="4">
         <v>5</v>
       </c>
-      <c r="H92" s="13" t="s">
+      <c r="H92" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13">
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4">
         <v>104</v>
       </c>
-      <c r="Q92" s="13" t="s">
+      <c r="Q92" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R92" s="13">
+      <c r="R92" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="5:18">
-      <c r="E93" s="13">
+      <c r="E93" s="4">
         <v>105</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93" s="4">
         <v>1</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G93" s="4">
         <v>6</v>
       </c>
-      <c r="H93" s="13" t="s">
+      <c r="H93" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13">
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4">
         <v>105</v>
       </c>
-      <c r="Q93" s="13" t="s">
+      <c r="Q93" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="R93" s="13">
+      <c r="R93" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="5:13">
-      <c r="E94" s="13">
+      <c r="E94" s="4">
         <v>106</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F94" s="4">
         <v>1</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G94" s="4">
         <v>7</v>
       </c>
-      <c r="H94" s="13" t="s">
+      <c r="H94" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13">
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4">
         <v>106</v>
       </c>
     </row>
     <row r="95" spans="5:13">
-      <c r="E95" s="13">
+      <c r="E95" s="4">
         <v>107</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95" s="4">
         <v>1</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G95" s="4">
         <v>8</v>
       </c>
-      <c r="H95" s="13" t="s">
+      <c r="H95" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13">
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4">
         <v>107</v>
       </c>
     </row>
     <row r="96" spans="5:13">
-      <c r="E96" s="13">
+      <c r="E96" s="4">
         <v>108</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F96" s="4">
         <v>1</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G96" s="4">
         <v>9</v>
       </c>
-      <c r="H96" s="13" t="s">
+      <c r="H96" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13">
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4">
         <v>108</v>
       </c>
     </row>
     <row r="97" spans="5:13">
-      <c r="E97" s="13">
+      <c r="E97" s="4">
         <v>109</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="4">
         <v>1</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G97" s="4">
         <v>10</v>
       </c>
-      <c r="H97" s="13" t="s">
+      <c r="H97" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13">
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4">
         <v>109</v>
       </c>
     </row>
     <row r="98" spans="5:13">
-      <c r="E98" s="13">
+      <c r="E98" s="4">
         <v>110</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98" s="4">
         <v>1</v>
       </c>
-      <c r="G98" s="13">
+      <c r="G98" s="4">
         <v>11</v>
       </c>
-      <c r="H98" s="13" t="s">
+      <c r="H98" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13">
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4">
         <v>110</v>
       </c>
     </row>
     <row r="99" spans="5:13">
-      <c r="E99" s="13">
+      <c r="E99" s="4">
         <v>111</v>
       </c>
-      <c r="F99" s="13">
+      <c r="F99" s="4">
         <v>1</v>
       </c>
-      <c r="G99" s="13">
+      <c r="G99" s="4">
         <v>12</v>
       </c>
-      <c r="H99" s="13" t="s">
+      <c r="H99" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13">
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4">
         <v>111</v>
       </c>
     </row>
     <row r="100" spans="5:10">
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
     </row>
     <row r="101" spans="5:10">
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
     </row>
     <row r="102" spans="4:10">
-      <c r="D102" s="23">
+      <c r="D102" s="1">
         <v>3</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
     </row>
     <row r="103" spans="5:10">
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
     </row>
     <row r="104" spans="5:10">
-      <c r="E104" s="19" t="s">
+      <c r="E104" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F104" s="19" t="s">
+      <c r="F104" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
     </row>
     <row r="105" spans="5:10">
-      <c r="E105" s="19"/>
-      <c r="F105" s="19" t="s">
+      <c r="E105" s="6"/>
+      <c r="F105" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
     </row>
     <row r="106" spans="5:10">
-      <c r="E106" s="19"/>
-      <c r="F106" s="19" t="s">
+      <c r="E106" s="6"/>
+      <c r="F106" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
     </row>
     <row r="107" spans="5:10">
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
     </row>
     <row r="108" spans="4:10">
-      <c r="D108" s="23">
+      <c r="D108" s="1">
         <v>4</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E108" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
     </row>
     <row r="109" spans="5:10">
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
     </row>
     <row r="110" spans="5:10">
-      <c r="E110" s="19" t="s">
+      <c r="E110" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F110" s="19" t="s">
+      <c r="F110" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
     </row>
     <row r="111" spans="6:10">
-      <c r="F111" s="19" t="s">
+      <c r="F111" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
     </row>
     <row r="112" spans="5:10">
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
     </row>
     <row r="113" spans="5:7">
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
     </row>
     <row r="115" spans="3:4">
-      <c r="C115" s="23">
+      <c r="C115" s="1">
         <v>4</v>
       </c>
-      <c r="D115" s="23" t="s">
+      <c r="D115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="4:5">
-      <c r="D116" s="23">
+      <c r="D116" s="1">
         <v>1</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="23" t="s">
+      <c r="E117" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="119" spans="4:5">
-      <c r="D119" s="23">
+      <c r="D119" s="1">
         <v>2</v>
       </c>
-      <c r="E119" s="23" t="s">
+      <c r="E119" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="23" t="s">
+      <c r="E120" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="23" t="s">
+      <c r="E121" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="124" spans="3:4">
-      <c r="C124" s="23">
+      <c r="C124" s="1">
         <v>5</v>
       </c>
-      <c r="D124" s="23" t="s">
+      <c r="D124" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9667,407 +9645,407 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9" style="23"/>
-    <col min="2" max="2" width="15.75" style="23" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="23" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="14" style="23" customWidth="1"/>
-    <col min="6" max="6" width="32.875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="34.375" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="23">
         <v>1</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" ht="36" spans="2:11">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="23">
         <v>2</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="23">
         <v>3</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="23">
         <v>4</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="23">
         <v>5</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" s="22" customFormat="1" spans="6:11">
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="J9" s="32">
+    <row r="9" s="16" customFormat="1" ht="11.25" spans="6:11">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="J9" s="25">
         <v>6</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="10:11">
-      <c r="J10" s="30">
+      <c r="J10" s="23">
         <v>7</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="10:11">
-      <c r="J11" s="30">
+      <c r="J11" s="23">
         <v>8</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="10:11">
-      <c r="J12" s="30">
+      <c r="J12" s="23">
         <v>9</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="10:11">
-      <c r="J13" s="30">
+      <c r="J13" s="23">
         <v>10</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="10:11">
-      <c r="J14" s="30">
+      <c r="J14" s="23">
         <v>11</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="27">
         <v>12</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="4">
         <v>60</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>3</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="4">
         <v>140</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>4</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="4">
         <v>260</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>5</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="4">
         <v>710</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>6</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="4">
         <v>1335</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>7</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="4">
         <v>2460</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>8</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="4">
         <v>4410</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>9</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="4">
         <v>7160</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>10</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="4">
         <v>16260</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>11</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="4">
         <v>29560</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>12</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="4">
         <v>47060</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -10082,8 +10060,8 @@
   <sheetPr/>
   <dimension ref="B3:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -10098,27 +10076,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -10237,7 +10215,7 @@
         <v>153</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>161</v>
@@ -10249,7 +10227,7 @@
         <v>168</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -10259,14 +10237,13 @@
       <c r="C17" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="4"/>
       <c r="E17" s="4">
         <v>9</v>
       </c>
       <c r="G17" s="4">
         <v>3</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="4">
         <v>6</v>
       </c>
     </row>
@@ -10277,14 +10254,13 @@
       <c r="C18" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="4"/>
       <c r="E18" s="4">
         <v>9</v>
       </c>
       <c r="G18" s="4">
         <v>3</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="4">
         <v>6</v>
       </c>
     </row>
@@ -10295,14 +10271,13 @@
       <c r="C19" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="4"/>
       <c r="E19" s="4">
         <v>9</v>
       </c>
       <c r="G19" s="4">
         <v>3</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="4">
         <v>6</v>
       </c>
     </row>
@@ -10313,14 +10288,13 @@
       <c r="C20" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="4"/>
       <c r="E20" s="4">
         <v>9</v>
       </c>
       <c r="G20" s="4">
         <v>3</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="4">
         <v>6</v>
       </c>
     </row>
@@ -10331,14 +10305,13 @@
       <c r="C21" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="4"/>
       <c r="E21" s="4">
         <v>12</v>
       </c>
       <c r="G21" s="4">
         <v>4</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="4">
         <v>8</v>
       </c>
     </row>
@@ -10349,14 +10322,13 @@
       <c r="C22" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="4"/>
       <c r="E22" s="4">
         <v>12</v>
       </c>
       <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="4">
         <v>8</v>
       </c>
     </row>
@@ -10367,14 +10339,13 @@
       <c r="C23" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="4"/>
       <c r="E23" s="4">
         <v>12</v>
       </c>
       <c r="G23" s="4">
         <v>4</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="4">
         <v>8</v>
       </c>
     </row>
@@ -10385,14 +10356,13 @@
       <c r="C24" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="4"/>
       <c r="E24" s="4">
         <v>15</v>
       </c>
       <c r="G24" s="4">
         <v>5</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="4">
         <v>10</v>
       </c>
     </row>
@@ -10403,14 +10373,13 @@
       <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="4"/>
       <c r="E25" s="4">
         <v>15</v>
       </c>
       <c r="G25" s="4">
         <v>5</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="4">
         <v>10</v>
       </c>
     </row>
@@ -10421,14 +10390,13 @@
       <c r="C26" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="4"/>
       <c r="E26" s="4">
         <v>15</v>
       </c>
       <c r="G26" s="4">
         <v>5</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="4">
         <v>10</v>
       </c>
     </row>
@@ -10439,14 +10407,13 @@
       <c r="C27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="4"/>
       <c r="E27" s="4">
         <v>15</v>
       </c>
       <c r="G27" s="4">
         <v>5</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="4">
         <v>10</v>
       </c>
     </row>
@@ -10457,14 +10424,13 @@
       <c r="C28" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="4"/>
       <c r="E28" s="4">
         <v>15</v>
       </c>
       <c r="G28" s="4">
         <v>5</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="4">
         <v>10</v>
       </c>
     </row>
@@ -10475,14 +10441,13 @@
       <c r="C29" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="4"/>
       <c r="E29" s="4">
         <v>15</v>
       </c>
       <c r="G29" s="4">
         <v>5</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="4">
         <v>10</v>
       </c>
     </row>
@@ -10493,14 +10458,13 @@
       <c r="C30" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="4"/>
       <c r="E30" s="4">
         <v>15</v>
       </c>
       <c r="G30" s="4">
         <v>5</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="4">
         <v>10</v>
       </c>
     </row>
@@ -10511,14 +10475,13 @@
       <c r="C31" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="4"/>
       <c r="E31" s="4">
         <v>21</v>
       </c>
       <c r="G31" s="4">
         <v>7</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="4">
         <v>14</v>
       </c>
     </row>
@@ -10529,14 +10492,13 @@
       <c r="C32" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="4"/>
       <c r="E32" s="4">
         <v>21</v>
       </c>
       <c r="G32" s="4">
         <v>7</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="4">
         <v>14</v>
       </c>
     </row>
@@ -10547,14 +10509,13 @@
       <c r="C33" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="4"/>
       <c r="E33" s="4">
         <v>21</v>
       </c>
       <c r="G33" s="4">
         <v>7</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="4">
         <v>14</v>
       </c>
     </row>
@@ -10565,14 +10526,13 @@
       <c r="C34" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="4"/>
       <c r="E34" s="4">
         <v>21</v>
       </c>
       <c r="G34" s="4">
         <v>7</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="4">
         <v>14</v>
       </c>
     </row>
@@ -10583,14 +10543,13 @@
       <c r="C35" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D35" s="4"/>
       <c r="E35" s="4">
         <v>30</v>
       </c>
       <c r="G35" s="4">
         <v>10</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="4">
         <v>20</v>
       </c>
     </row>
@@ -10601,14 +10560,13 @@
       <c r="C36" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="4"/>
       <c r="E36" s="4">
         <v>30</v>
       </c>
       <c r="G36" s="4">
         <v>10</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="4">
         <v>20</v>
       </c>
     </row>
@@ -10629,242 +10587,242 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="15.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="48.75" style="13" customWidth="1"/>
-    <col min="7" max="7" width="33.125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="15.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="48.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="6:7">
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="19"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="13">
+      <c r="B10" s="4">
         <f>D10*100+C10</f>
         <v>101</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="13">
+      <c r="B11" s="4">
         <f t="shared" ref="B11:B21" si="0">D11*100+C11</f>
         <v>102</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="13">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="13">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="13">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="13">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="13">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="13">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="13">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="4">
         <v>9</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="13">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="4">
         <v>10</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="13">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="4">
         <v>11</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="13">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="4">
         <v>12</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10896,133 +10854,133 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="19" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="15" t="s">
         <v>215</v>
       </c>
       <c r="D14" s="4">
@@ -11171,94 +11129,94 @@
       <c r="J5" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="9:16">
       <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="9:16">
       <c r="I7" s="4">
         <v>3</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="7" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" spans="9:16">
       <c r="I8" s="4">
         <v>4</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="7" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="9:16">
       <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="7" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="9:16">
       <c r="I10" s="4">
         <v>6</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" spans="9:16">
       <c r="I11" s="4">
@@ -11267,14 +11225,14 @@
       <c r="J11" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="15" spans="9:16">
       <c r="I15" s="2" t="s">
@@ -11300,13 +11258,13 @@
         <v>237</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="9:16">
       <c r="I17" s="4">
@@ -11316,13 +11274,13 @@
         <v>239</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="10:16">
       <c r="J18" s="4"/>
@@ -11337,10 +11295,10 @@
       <c r="I36" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M36" s="12" t="s">
+      <c r="M36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N36" s="12" t="s">
+      <c r="N36" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -11348,45 +11306,45 @@
       <c r="I37" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="13" t="s">
+      <c r="N37" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="9:14">
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="M38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N38" s="13" t="s">
+      <c r="N38" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="13:14">
-      <c r="M39" s="13" t="s">
+      <c r="M39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="N39" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="13:14">
-      <c r="M40" s="13" t="s">
+      <c r="M40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="13" t="s">
+      <c r="N40" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="13:14">
-      <c r="M41" s="13" t="s">
+      <c r="M41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="13" t="s">
+      <c r="N41" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11420,81 +11378,81 @@
       <c r="I92" s="4">
         <v>1</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="7" t="s">
+      <c r="K92" s="8"/>
+      <c r="L92" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
     </row>
     <row r="93" spans="9:16">
       <c r="I93" s="4">
         <v>2</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K93" s="9"/>
-      <c r="L93" s="7" t="s">
+      <c r="K93" s="8"/>
+      <c r="L93" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
     </row>
     <row r="94" spans="9:16">
       <c r="I94" s="4">
         <v>3</v>
       </c>
-      <c r="J94" s="8" t="s">
+      <c r="J94" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K94" s="9"/>
-      <c r="L94" s="7" t="s">
+      <c r="K94" s="8"/>
+      <c r="L94" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
     </row>
     <row r="95" spans="9:16">
       <c r="I95" s="4">
         <v>4</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K95" s="9"/>
-      <c r="L95" s="7" t="s">
+      <c r="K95" s="8"/>
+      <c r="L95" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
     </row>
     <row r="96" spans="9:16">
       <c r="I96" s="4">
         <v>5</v>
       </c>
-      <c r="J96" s="8" t="s">
+      <c r="J96" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K96" s="9"/>
-      <c r="L96" s="7" t="s">
+      <c r="K96" s="8"/>
+      <c r="L96" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
     </row>
     <row r="100" spans="9:9">
       <c r="I100" s="1" t="s">
@@ -11507,7 +11465,7 @@
       </c>
     </row>
     <row r="102" spans="9:9">
-      <c r="I102" s="14" t="s">
+      <c r="I102" s="10" t="s">
         <v>256</v>
       </c>
     </row>
@@ -11536,65 +11494,65 @@
       <c r="I136" s="4">
         <v>1</v>
       </c>
-      <c r="J136" s="15" t="s">
+      <c r="J136" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="K136" s="16"/>
-      <c r="L136" s="7" t="s">
+      <c r="K136" s="12"/>
+      <c r="L136" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="M136" s="7"/>
-      <c r="N136" s="7"/>
-      <c r="O136" s="7"/>
-      <c r="P136" s="7"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
     </row>
     <row r="137" spans="9:16">
       <c r="I137" s="4">
         <v>2</v>
       </c>
-      <c r="J137" s="15" t="s">
+      <c r="J137" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K137" s="16"/>
-      <c r="L137" s="7" t="s">
+      <c r="K137" s="12"/>
+      <c r="L137" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
     </row>
     <row r="138" spans="9:16">
       <c r="I138" s="4">
         <v>3</v>
       </c>
-      <c r="J138" s="15" t="s">
+      <c r="J138" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K138" s="16"/>
-      <c r="L138" s="7" t="s">
+      <c r="K138" s="12"/>
+      <c r="L138" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="M138" s="7"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
-      <c r="P138" s="7"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
     </row>
     <row r="139" spans="9:16">
       <c r="I139" s="4">
         <v>4</v>
       </c>
-      <c r="J139" s="15" t="s">
+      <c r="J139" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="K139" s="16"/>
-      <c r="L139" s="7" t="s">
+      <c r="K139" s="12"/>
+      <c r="L139" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="M139" s="7"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
-      <c r="P139" s="7"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
     </row>
     <row r="140" spans="9:16">
       <c r="I140" s="4">
@@ -11604,13 +11562,13 @@
         <v>266</v>
       </c>
       <c r="K140" s="4"/>
-      <c r="L140" s="11" t="s">
+      <c r="L140" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="M140" s="11"/>
-      <c r="N140" s="11"/>
-      <c r="O140" s="11"/>
-      <c r="P140" s="11"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
     </row>
     <row r="141" spans="9:16">
       <c r="I141" s="4">
@@ -11620,13 +11578,13 @@
         <v>222</v>
       </c>
       <c r="K141" s="4"/>
-      <c r="L141" s="11" t="s">
+      <c r="L141" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="M141" s="11"/>
-      <c r="N141" s="11"/>
-      <c r="O141" s="11"/>
-      <c r="P141" s="11"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
     </row>
     <row r="145" spans="9:16">
       <c r="I145" s="2" t="s">
@@ -11652,13 +11610,13 @@
         <v>269</v>
       </c>
       <c r="K146" s="4"/>
-      <c r="L146" s="11" t="s">
+      <c r="L146" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="M146" s="11"/>
-      <c r="N146" s="11"/>
-      <c r="O146" s="11"/>
-      <c r="P146" s="11"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
     </row>
     <row r="147" spans="9:16">
       <c r="I147" s="4">
@@ -11668,13 +11626,13 @@
         <v>271</v>
       </c>
       <c r="K147" s="4"/>
-      <c r="L147" s="11" t="s">
+      <c r="L147" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="M147" s="11"/>
-      <c r="N147" s="11"/>
-      <c r="O147" s="11"/>
-      <c r="P147" s="11"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
     </row>
     <row r="148" spans="10:16">
       <c r="J148" s="4"/>
@@ -11719,13 +11677,13 @@
         <v>275</v>
       </c>
       <c r="K181" s="4"/>
-      <c r="L181" s="17" t="s">
+      <c r="L181" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="M181" s="17"/>
-      <c r="N181" s="17"/>
-      <c r="O181" s="17"/>
-      <c r="P181" s="17"/>
+      <c r="M181" s="9"/>
+      <c r="N181" s="9"/>
+      <c r="O181" s="9"/>
+      <c r="P181" s="9"/>
     </row>
     <row r="182" ht="63" customHeight="1" spans="9:16">
       <c r="I182" s="4">
@@ -11735,13 +11693,13 @@
         <v>277</v>
       </c>
       <c r="K182" s="4"/>
-      <c r="L182" s="17" t="s">
+      <c r="L182" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="M182" s="11"/>
-      <c r="N182" s="11"/>
-      <c r="O182" s="11"/>
-      <c r="P182" s="11"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6"/>
     </row>
     <row r="183" spans="9:16">
       <c r="I183" s="4">
@@ -11751,13 +11709,13 @@
         <v>222</v>
       </c>
       <c r="K183" s="4"/>
-      <c r="L183" s="11" t="s">
+      <c r="L183" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="M183" s="11"/>
-      <c r="N183" s="11"/>
-      <c r="O183" s="11"/>
-      <c r="P183" s="11"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
     </row>
     <row r="184" spans="9:16">
       <c r="I184" s="4"/>
@@ -11770,40 +11728,40 @@
       <c r="P184" s="4"/>
     </row>
     <row r="188" spans="9:9">
-      <c r="I188" s="18" t="s">
+      <c r="I188" s="13" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="189" spans="9:17">
-      <c r="I189" s="14" t="s">
+      <c r="I189" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="M189" s="19"/>
-      <c r="N189" s="13"/>
-      <c r="O189" s="13"/>
-      <c r="P189" s="13"/>
-      <c r="Q189" s="13"/>
+      <c r="M189" s="6"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
     </row>
     <row r="190" spans="13:17">
-      <c r="M190" s="19"/>
-      <c r="N190" s="19"/>
-      <c r="O190" s="13"/>
-      <c r="P190" s="13"/>
-      <c r="Q190" s="13"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
     </row>
     <row r="191" spans="13:17">
-      <c r="M191" s="19"/>
-      <c r="N191" s="19"/>
-      <c r="O191" s="13"/>
-      <c r="P191" s="13"/>
-      <c r="Q191" s="13"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
     </row>
     <row r="192" spans="13:17">
-      <c r="M192" s="19"/>
-      <c r="N192" s="19"/>
-      <c r="O192" s="13"/>
-      <c r="P192" s="13"/>
-      <c r="Q192" s="13"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
     </row>
     <row r="211" spans="8:8">
       <c r="H211" s="1" t="s">
@@ -11834,13 +11792,13 @@
         <v>222</v>
       </c>
       <c r="K214" s="4"/>
-      <c r="L214" s="11" t="s">
+      <c r="L214" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="M214" s="11"/>
-      <c r="N214" s="11"/>
-      <c r="O214" s="11"/>
-      <c r="P214" s="11"/>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
     </row>
     <row r="219" spans="9:9">
       <c r="I219" s="1" t="s">

--- a/7月制作内容/系统文档/【叶雯婷】知交系统.xlsx
+++ b/7月制作内容/系统文档/【叶雯婷】知交系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24285" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="24285" windowHeight="12465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="策划案" sheetId="1" r:id="rId1"/>
@@ -883,10 +883,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -940,9 +940,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,13 +1002,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -970,7 +1009,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,7 +1025,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,22 +1055,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1015,32 +1062,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,30 +1078,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,7 +1099,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,19 +1165,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,103 +1267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,43 +1279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,21 +1356,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1381,15 +1366,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1409,12 +1385,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1437,21 +1452,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1460,10 +1460,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1472,19 +1472,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1493,112 +1493,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8044,8 +8044,8 @@
   <sheetPr/>
   <dimension ref="B3:R124"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F31"/>
+    <sheetView topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -10060,7 +10060,7 @@
   <sheetPr/>
   <dimension ref="B3:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -11090,7 +11090,7 @@
   <sheetPr/>
   <dimension ref="H2:Q219"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
